--- a/data/trans_dic/Q45B_R-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/Q45B_R-Dificultad-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.007535728879972417</v>
+        <v>0.007652901270043351</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02232337058653105</v>
+        <v>0.02200821456458809</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.005235989628657009</v>
+        <v>0.005114004214083745</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.04212193327481407</v>
+        <v>0.04094872734602858</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.04450510404391805</v>
+        <v>0.04604485546726187</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01731189928288283</v>
+        <v>0.01646418696346614</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.03083449285380878</v>
+        <v>0.03147736261356181</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.03701067080858712</v>
+        <v>0.03784776019272418</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01272639892539297</v>
+        <v>0.01280793882830597</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03045701219619073</v>
+        <v>0.03311200491664556</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.04397737302953915</v>
+        <v>0.04542255671940188</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.01677354226612305</v>
+        <v>0.01664398184789989</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.07055102227528544</v>
+        <v>0.07098901176718167</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.07507816964079016</v>
+        <v>0.0748104899575162</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.03489163331089442</v>
+        <v>0.03338913523882446</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.05176888882492085</v>
+        <v>0.05218474814083898</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.05608334424190729</v>
+        <v>0.05639212275072479</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.02336384540755061</v>
+        <v>0.02344621372000385</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01110326149788017</v>
+        <v>0.01082889339330106</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01132958115628008</v>
+        <v>0.01194604333969073</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.004245246832763064</v>
+        <v>0.004338910922612358</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.05651670528940317</v>
+        <v>0.05564867451221236</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.05584846567861321</v>
+        <v>0.05537775413229765</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.02072317368148383</v>
+        <v>0.0216021750575747</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.0364007483131359</v>
+        <v>0.03578626251651196</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.03690967421867398</v>
+        <v>0.03747515417391604</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.0147300923323215</v>
+        <v>0.01545426635079187</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.0267317907545287</v>
+        <v>0.02818527690605483</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02891971112074091</v>
+        <v>0.02969599268873737</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01753104328481903</v>
+        <v>0.01801553558946764</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.08957512636598026</v>
+        <v>0.08854489988429298</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.08796029563697333</v>
+        <v>0.08697094342634157</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.04494445183474197</v>
+        <v>0.04454375893916386</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.05388281143103995</v>
+        <v>0.05428754978623335</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.05447877477605785</v>
+        <v>0.05684354078237498</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.02857558083714323</v>
+        <v>0.02904133434370981</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01260751062362789</v>
+        <v>0.01365573237192771</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01099617582045677</v>
+        <v>0.01038650814540628</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.002599318378233764</v>
+        <v>0.003445705393711668</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.0654811727455738</v>
+        <v>0.06707533929445766</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.07276629539060323</v>
+        <v>0.07161520459720512</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.03728509202085185</v>
+        <v>0.03686111037866453</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.03999611822015919</v>
+        <v>0.0407091270423759</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.04370200945994854</v>
+        <v>0.04319943827126303</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.02150286757912147</v>
+        <v>0.02072289039314637</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03105675127192214</v>
+        <v>0.03147910387518821</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.03017130044665964</v>
+        <v>0.02985622888251574</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01587069951130101</v>
+        <v>0.01712606507804259</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.09939696460820349</v>
+        <v>0.1029580910771603</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.110973480248935</v>
+        <v>0.1106558354966645</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.06792022961502314</v>
+        <v>0.06706803800342864</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.05966208340409579</v>
+        <v>0.0603690772143332</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.06589120883810405</v>
+        <v>0.06677415757997182</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.0369339150447908</v>
+        <v>0.0372427159290445</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01534015931206488</v>
+        <v>0.01541301339238792</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01968744634032051</v>
+        <v>0.0205995914859319</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.004052459822108263</v>
+        <v>0.004105898820620726</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.114236379728746</v>
+        <v>0.117607071528073</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.0686080712843128</v>
+        <v>0.06826457259666666</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.02917156491813001</v>
+        <v>0.02938894862069177</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.06274735545895645</v>
+        <v>0.06461830624954383</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.04708651754772759</v>
+        <v>0.04789742529095277</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01979269417879944</v>
+        <v>0.01947775886867034</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.05116608003185483</v>
+        <v>0.05286809942444199</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.06194358869211167</v>
+        <v>0.0580126786397937</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02599830407068453</v>
+        <v>0.02431435115672031</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1916417727676068</v>
+        <v>0.1940236601559083</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1278454220762467</v>
+        <v>0.1268509361357983</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.06594922199153062</v>
+        <v>0.06625307835531848</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1027950489259217</v>
+        <v>0.1033934026658212</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.08233272283119977</v>
+        <v>0.08217660737635916</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.04130225245318155</v>
+        <v>0.03946702791627025</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01550632851675186</v>
+        <v>0.0153744628509099</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02050097025328227</v>
+        <v>0.02007445440514763</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.006548477026492487</v>
+        <v>0.00653702879519289</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.06951919390492602</v>
+        <v>0.06991941284793785</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.0656373475566522</v>
+        <v>0.06605518960133214</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.02979281612415075</v>
+        <v>0.02985689966127692</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.04474508415637346</v>
+        <v>0.04470722526885439</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.0453037106247774</v>
+        <v>0.04492877727695548</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.01942461979197993</v>
+        <v>0.0195380373725501</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.02607434737604713</v>
+        <v>0.0259433793912406</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.03187231664230986</v>
+        <v>0.03128932464465394</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.01350874138534514</v>
+        <v>0.01326126507808711</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.08890322853477904</v>
+        <v>0.08768001321956653</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.08427871050518605</v>
+        <v>0.08469907380439839</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.04146682125605458</v>
+        <v>0.0419257917882507</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.05507994847600623</v>
+        <v>0.05509202884774179</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.05591720910687808</v>
+        <v>0.05612541829773358</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.02663581683137208</v>
+        <v>0.02597998456782838</v>
       </c>
     </row>
     <row r="19">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>4402</v>
+        <v>4470</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>23260</v>
+        <v>22932</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>5876</v>
+        <v>5740</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>38850</v>
+        <v>37768</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>49598</v>
+        <v>51314</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>21761</v>
+        <v>20695</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>46451</v>
+        <v>47420</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>79810</v>
+        <v>81615</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>30280</v>
+        <v>30474</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>17791</v>
+        <v>19342</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>45823</v>
+        <v>47329</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>18825</v>
+        <v>18680</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>65072</v>
+        <v>65476</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>83670</v>
+        <v>83372</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>43858</v>
+        <v>41970</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>77988</v>
+        <v>78615</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>120939</v>
+        <v>121605</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>55590</v>
+        <v>55786</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>11968</v>
+        <v>11672</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>10991</v>
+        <v>11589</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>3858</v>
+        <v>3943</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>59769</v>
+        <v>58851</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>60772</v>
+        <v>60260</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>20693</v>
+        <v>21571</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>77731</v>
+        <v>76419</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>75969</v>
+        <v>77133</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>28096</v>
+        <v>29477</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>28814</v>
+        <v>30381</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>28055</v>
+        <v>28808</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>15933</v>
+        <v>16373</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>94729</v>
+        <v>93640</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>95715</v>
+        <v>94638</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>44880</v>
+        <v>44479</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>115063</v>
+        <v>115927</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>112131</v>
+        <v>116998</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>54504</v>
+        <v>55393</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>14141</v>
+        <v>15316</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>9697</v>
+        <v>9160</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>2129</v>
+        <v>2822</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>65084</v>
+        <v>66669</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>63589</v>
+        <v>62583</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>28709</v>
+        <v>28382</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>84613</v>
+        <v>86122</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>76731</v>
+        <v>75848</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>34168</v>
+        <v>32928</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>34833</v>
+        <v>35307</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>26608</v>
+        <v>26330</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>12998</v>
+        <v>14026</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>98795</v>
+        <v>102334</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>96977</v>
+        <v>96699</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>52297</v>
+        <v>51641</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>126217</v>
+        <v>127713</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>115690</v>
+        <v>117240</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>58687</v>
+        <v>59178</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>6860</v>
+        <v>6893</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>9884</v>
+        <v>10342</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>2037</v>
+        <v>2063</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>38973</v>
+        <v>40123</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>31061</v>
+        <v>30906</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>14253</v>
+        <v>14359</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>49467</v>
+        <v>50942</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>44958</v>
+        <v>45732</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>19617</v>
+        <v>19305</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>22881</v>
+        <v>23643</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>31099</v>
+        <v>29126</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>13065</v>
+        <v>12219</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>65380</v>
+        <v>66193</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>57880</v>
+        <v>57430</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>32222</v>
+        <v>32370</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>81039</v>
+        <v>81511</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>78611</v>
+        <v>78462</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>40936</v>
+        <v>39117</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>50098</v>
+        <v>49672</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>69622</v>
+        <v>68173</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>21955</v>
+        <v>21917</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>230454</v>
+        <v>231781</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>231648</v>
+        <v>233123</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>104695</v>
+        <v>104920</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>292892</v>
+        <v>292644</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>313739</v>
+        <v>311142</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>133385</v>
+        <v>134164</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>84242</v>
+        <v>83819</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>108239</v>
+        <v>106259</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>45291</v>
+        <v>44461</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>294711</v>
+        <v>290657</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>297437</v>
+        <v>298921</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>145719</v>
+        <v>147332</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>360542</v>
+        <v>360621</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>387239</v>
+        <v>388681</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>182903</v>
+        <v>178399</v>
       </c>
     </row>
     <row r="24">
